--- a/biology/Médecine/1339_en_santé_et_médecine/1339_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1339_en_santé_et_médecine/1339_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1339_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1339_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1339 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1339_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1339_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>12 mai : fondation par Humbert II, dauphin de Viennois, de l'université de Grenoble où la médecine est enseignée dès l'origine[1].
-1er ou 2 septembre : Henri XIV, duc de Bavière, meurt de la lèpre à trente-trois ans[2].
-Fondation à Nuremberg en Allemagne de l'hôpital du Saint-Esprit (Heilig Geist Spital)[3].
-Fondation de l'hôpital de Lambais à Saint-Quentin en Picardie[4].
-Un hôpital Saint-Jacques est mentionné à Villefranche de Rouergue[5].
-Un « hôpital-asile » laïque est attesté à Oradea, en Transylvanie[6].
-À Florence, en Toscane en Italie, trente hôpitaux de taille diverse fournissent un total de mille lits[7].
-Les échevins de Bruxelles en Flandre nomment un médecin et un chirurgien pour soigner les habitants de la ville, « les riches sous salaire raisonnable, et le pauvre gratis, sans refuser ses secours à qui que ce [soit] »[8].
-Le roi d'Angleterre Édouard III, accordant sa protection à l'hôpital de la Vierge-Marie et de Sainte-Marie-Madeleine (Hospital of the Blessed Virgin Mary and St. Mary Magdalen) de Woodstock dans le comté d'Oxford, autorise le maître et les frères à collecter l'aumône[9].
-1338-1339 : fondation à Rome, par le cardinal Giovanni Colonna, de l'hôpital Saint-Jacques qui, au XVe siècle, prendra le nom d'hôpital des Incurables (Ospedale di San Giacomo degli Incurabili[10]).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12 mai : fondation par Humbert II, dauphin de Viennois, de l'université de Grenoble où la médecine est enseignée dès l'origine.
+1er ou 2 septembre : Henri XIV, duc de Bavière, meurt de la lèpre à trente-trois ans.
+Fondation à Nuremberg en Allemagne de l'hôpital du Saint-Esprit (Heilig Geist Spital).
+Fondation de l'hôpital de Lambais à Saint-Quentin en Picardie.
+Un hôpital Saint-Jacques est mentionné à Villefranche de Rouergue.
+Un « hôpital-asile » laïque est attesté à Oradea, en Transylvanie.
+À Florence, en Toscane en Italie, trente hôpitaux de taille diverse fournissent un total de mille lits.
+Les échevins de Bruxelles en Flandre nomment un médecin et un chirurgien pour soigner les habitants de la ville, « les riches sous salaire raisonnable, et le pauvre gratis, sans refuser ses secours à qui que ce [soit] ».
+Le roi d'Angleterre Édouard III, accordant sa protection à l'hôpital de la Vierge-Marie et de Sainte-Marie-Madeleine (Hospital of the Blessed Virgin Mary and St. Mary Magdalen) de Woodstock dans le comté d'Oxford, autorise le maître et les frères à collecter l'aumône.
+1338-1339 : fondation à Rome, par le cardinal Giovanni Colonna, de l'hôpital Saint-Jacques qui, au XVe siècle, prendra le nom d'hôpital des Incurables (Ospedale di San Giacomo degli Incurabili).</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1339_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1339_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1339-1348 : fl. Pierre Augerii (date de naissance inconnue, mort en 1348), chirurgien actif à la cour d'Avignon sous les papes Benoît XII et Clément VI[11].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1339-1348 : fl. Pierre Augerii (date de naissance inconnue, mort en 1348), chirurgien actif à la cour d'Avignon sous les papes Benoît XII et Clément VI.</t>
         </is>
       </c>
     </row>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1339_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1339_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,9 +596,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1321-1339 : Arnold de Bamberg (date de naissance inconnue), médecin du comte palatin Rodolphe Ier, auteur en 1317 d'un « régime de santé » composé à la demande d'Augustin Kazotic, évêque de Zagreb[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1321-1339 : Arnold de Bamberg (date de naissance inconnue), médecin du comte palatin Rodolphe Ier, auteur en 1317 d'un « régime de santé » composé à la demande d'Augustin Kazotic, évêque de Zagreb.
 </t>
         </is>
       </c>
